--- a/Selenium_OrangeHRM/testdata/Books.xlsx
+++ b/Selenium_OrangeHRM/testdata/Books.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2443" windowWidth="15429" windowHeight="3883" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2443" windowWidth="15429" windowHeight="3883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="validLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
     <sheet name="AddEmployee" sheetId="3" r:id="rId3"/>
-    <sheet name="listEmp" sheetId="4" r:id="rId4"/>
+    <sheet name="PerDetails" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>UserName</t>
   </si>
@@ -51,27 +51,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>RetypePassword</t>
-  </si>
-  <si>
-    <t>Nagaraj</t>
-  </si>
-  <si>
-    <t>YKB</t>
-  </si>
-  <si>
-    <t>nagaraj.kyb@gmail.com</t>
-  </si>
-  <si>
-    <t>nagaraj</t>
-  </si>
-  <si>
-    <t>raj123</t>
-  </si>
-  <si>
     <t>admin123</t>
   </si>
   <si>
@@ -106,6 +85,27 @@
   </si>
   <si>
     <t>Raj</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Aka</t>
+  </si>
+  <si>
+    <t>Mahadevee</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -208,9 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -223,6 +220,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,10 +535,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -579,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -592,71 +595,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>18</v>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -676,67 +679,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.07421875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="13">
+        <v>35759</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>